--- a/build/website/StructureDefinition-cibmtr-obs-priority-variables.xlsx
+++ b/build/website/StructureDefinition-cibmtr-obs-priority-variables.xlsx
@@ -900,7 +900,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/cibmtr-priority-variables-vs</t>
+    <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/cibmtr-priority-variables-2021</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1842,7 +1842,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.55859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
